--- a/Figures/Power Matrix for 3rd order Mn,BP,Coat.xlsx
+++ b/Figures/Power Matrix for 3rd order Mn,BP,Coat.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Powers of…</t>
   </si>
@@ -52,13 +52,40 @@
   </si>
   <si>
     <t>Polynomial Term</t>
+  </si>
+  <si>
+    <t>Mn*log(CoatProc)</t>
+  </si>
+  <si>
+    <t>BP*log(CoatProc)</t>
+  </si>
+  <si>
+    <t>BP*log(CoatProc)^2</t>
+  </si>
+  <si>
+    <t>log(CoatProc)</t>
+  </si>
+  <si>
+    <t>log(CoatProc)^3</t>
+  </si>
+  <si>
+    <t>Mn*log(CoatProc)^2</t>
+  </si>
+  <si>
+    <t>Mn*BP*log(CoatProc)</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Log CoatProc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -66,8 +93,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -77,6 +128,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -90,15 +147,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -428,20 +508,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F22"/>
+  <dimension ref="B1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I1" sqref="I1:M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:13">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:6">
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -454,8 +541,20 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="2:6">
+      <c r="I2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
       <c r="B3" s="2">
         <v>0</v>
       </c>
@@ -471,8 +570,23 @@
       <c r="F3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:6">
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5">
+        <v>-5.7507702631070998</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
       <c r="B4" s="2">
         <v>0</v>
       </c>
@@ -488,8 +602,23 @@
       <c r="F4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:6">
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>-0.34956130703966898</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -505,8 +634,23 @@
       <c r="F5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:6">
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3</v>
+      </c>
+      <c r="L5" s="5">
+        <v>-0.31220417209717999</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
       <c r="B6" s="2">
         <v>1</v>
       </c>
@@ -522,8 +666,23 @@
       <c r="F6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:6">
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2</v>
+      </c>
+      <c r="L6" s="5">
+        <v>-7.4305634695698399E-3</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
       <c r="B7">
         <v>1</v>
       </c>
@@ -536,8 +695,23 @@
       <c r="E7">
         <v>-4.3620390508605501E-4</v>
       </c>
-    </row>
-    <row r="8" spans="2:6">
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>-4.9107582267101501E-3</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
       <c r="B8">
         <v>2</v>
       </c>
@@ -550,8 +724,23 @@
       <c r="E8" s="1">
         <v>-2.06927342667199E-6</v>
       </c>
-    </row>
-    <row r="9" spans="2:6">
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5">
+        <v>-8.0421055643125304E-4</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
       <c r="B9">
         <v>0</v>
       </c>
@@ -564,8 +753,20 @@
       <c r="E9" s="1">
         <v>-6.8306228299165297E-7</v>
       </c>
-    </row>
-    <row r="10" spans="2:6">
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-3.7732695196658098E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
       <c r="B10">
         <v>2</v>
       </c>
@@ -578,8 +779,20 @@
       <c r="E10" s="1">
         <v>-5.8706688558388402E-8</v>
       </c>
-    </row>
-    <row r="11" spans="2:6">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-7.00001878737546E-7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
       <c r="B11">
         <v>0</v>
       </c>
@@ -592,8 +805,20 @@
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:6">
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-5.8938008557324502E-8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
       <c r="B12">
         <v>1</v>
       </c>
@@ -606,8 +831,20 @@
       <c r="E12" s="1">
         <v>8.5570810432594395E-9</v>
       </c>
-    </row>
-    <row r="13" spans="2:6">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
       <c r="B13">
         <v>3</v>
       </c>
@@ -620,8 +857,20 @@
       <c r="E13" s="1">
         <v>2.9793517170002699E-8</v>
       </c>
-    </row>
-    <row r="14" spans="2:6">
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>8.0273393241430697E-9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
       <c r="B14">
         <v>0</v>
       </c>
@@ -634,8 +883,20 @@
       <c r="E14" s="1">
         <v>2.0514444537930398E-6</v>
       </c>
-    </row>
-    <row r="15" spans="2:6">
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>3.0142465630165301E-8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
       <c r="B15">
         <v>2</v>
       </c>
@@ -648,8 +909,20 @@
       <c r="E15" s="1">
         <v>1.16430608641901E-5</v>
       </c>
-    </row>
-    <row r="16" spans="2:6">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>3.88514944575102E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
       <c r="B16">
         <v>1</v>
       </c>
@@ -662,8 +935,20 @@
       <c r="E16">
         <v>4.4943867790414501E-4</v>
       </c>
-    </row>
-    <row r="17" spans="2:6">
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>9.5401398774503395E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
       <c r="B17">
         <v>0</v>
       </c>
@@ -676,8 +961,20 @@
       <c r="E17">
         <v>5.1611169408752398E-4</v>
       </c>
-    </row>
-    <row r="18" spans="2:6">
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1.3742886922255501E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
       <c r="B18">
         <v>0</v>
       </c>
@@ -690,8 +987,20 @@
       <c r="E18">
         <v>8.3860197934023805E-4</v>
       </c>
-    </row>
-    <row r="19" spans="2:6">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>8.6141017064458197E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
       <c r="B19" s="2">
         <v>0</v>
       </c>
@@ -707,8 +1016,23 @@
       <c r="F19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="2:6">
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
+        <v>2</v>
+      </c>
+      <c r="L19" s="5">
+        <v>1.6603803754406199E-3</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
       <c r="B20" s="2">
         <v>1</v>
       </c>
@@ -724,8 +1048,23 @@
       <c r="F20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="2:6">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5">
+        <v>1.5189884711222901E-2</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
       <c r="B21" s="2">
         <v>0</v>
       </c>
@@ -741,8 +1080,23 @@
       <c r="F21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="2:6">
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0.27807959947133198</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
       <c r="B22" s="2">
         <v>0</v>
       </c>
@@ -758,9 +1112,25 @@
       <c r="F22" t="s">
         <v>4</v>
       </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
+        <v>46.738561511137497</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
